--- a/results/sampled_results/smells_sampled_sumary.xlsx
+++ b/results/sampled_results/smells_sampled_sumary.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Architecture" sheetId="1" state="visible" r:id="rId2"/>
@@ -286,8 +286,8 @@
   </sheetPr>
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -317,7 +317,7 @@
       </c>
       <c r="C2" s="3" t="n">
         <f aca="false">B2/B17</f>
-        <v>0.000538213132400431</v>
+        <v>0.000238891543239369</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -329,7 +329,7 @@
       </c>
       <c r="C3" s="3" t="n">
         <f aca="false">B3/B17</f>
-        <v>0.00322927879440258</v>
+        <v>0.00143334925943622</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -341,7 +341,7 @@
       </c>
       <c r="C4" s="3" t="n">
         <f aca="false">B4/B17</f>
-        <v>0.00107642626480086</v>
+        <v>0.000477783086478739</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -353,7 +353,7 @@
       </c>
       <c r="C5" s="3" t="n">
         <f aca="false">B5/B17</f>
-        <v>0.0129171151776103</v>
+        <v>0.00573339703774486</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -365,7 +365,7 @@
       </c>
       <c r="C6" s="3" t="n">
         <f aca="false">B6/B17</f>
-        <v>0.00645855758880517</v>
+        <v>0.00286669851887243</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -377,7 +377,7 @@
       </c>
       <c r="C7" s="3" t="n">
         <f aca="false">B7/B17</f>
-        <v>0.00430570505920344</v>
+        <v>0.00191113234591495</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -389,7 +389,7 @@
       </c>
       <c r="C8" s="3" t="n">
         <f aca="false">B8/B17</f>
-        <v>0.00592034445640474</v>
+        <v>0.00262780697563306</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -421,7 +421,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="5" t="n">
-        <v>1858</v>
+        <v>4186</v>
       </c>
       <c r="C17" s="4"/>
     </row>
@@ -443,8 +443,8 @@
   </sheetPr>
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B32" activeCellId="0" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -474,7 +474,7 @@
       </c>
       <c r="C2" s="3" t="n">
         <f aca="false">B2/B31</f>
-        <v>0.00430570505920344</v>
+        <v>0.00191113234591495</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -486,7 +486,7 @@
       </c>
       <c r="C3" s="3" t="n">
         <f aca="false">B3/B31</f>
-        <v>0.0247578040904198</v>
+        <v>0.010989010989011</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -498,7 +498,7 @@
       </c>
       <c r="C4" s="3" t="n">
         <f aca="false">B4/B31</f>
-        <v>0.0242195909580194</v>
+        <v>0.0107501194457716</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -510,7 +510,7 @@
       </c>
       <c r="C5" s="3" t="n">
         <f aca="false">B5/B31</f>
-        <v>0.00215285252960172</v>
+        <v>0.000955566172957477</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -522,7 +522,7 @@
       </c>
       <c r="C6" s="3" t="n">
         <f aca="false">B6/B31</f>
-        <v>0.000538213132400431</v>
+        <v>0.000238891543239369</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -534,7 +534,7 @@
       </c>
       <c r="C7" s="3" t="n">
         <f aca="false">B7/B31</f>
-        <v>0.0069967707212056</v>
+        <v>0.0031055900621118</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -546,7 +546,7 @@
       </c>
       <c r="C8" s="3" t="n">
         <f aca="false">B8/B31</f>
-        <v>0.00592034445640474</v>
+        <v>0.00262780697563306</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -558,7 +558,7 @@
       </c>
       <c r="C9" s="3" t="n">
         <f aca="false">B9/B31</f>
-        <v>0.00861141011840689</v>
+        <v>0.00382226469182991</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -570,7 +570,7 @@
       </c>
       <c r="C10" s="3" t="n">
         <f aca="false">B10/B31</f>
-        <v>0.00484391819160388</v>
+        <v>0.00215002388915432</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -582,7 +582,7 @@
       </c>
       <c r="C11" s="3" t="n">
         <f aca="false">B11/B31</f>
-        <v>0.0236813778256189</v>
+        <v>0.0105112279025323</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -594,7 +594,7 @@
       </c>
       <c r="C12" s="3" t="n">
         <f aca="false">B12/B31</f>
-        <v>0.00107642626480086</v>
+        <v>0.000477783086478739</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -606,7 +606,7 @@
       </c>
       <c r="C13" s="3" t="n">
         <f aca="false">B13/B31</f>
-        <v>0.00107642626480086</v>
+        <v>0.000477783086478739</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -618,7 +618,7 @@
       </c>
       <c r="C14" s="3" t="n">
         <f aca="false">B14/B31</f>
-        <v>0.00107642626480086</v>
+        <v>0.000477783086478739</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -630,7 +630,7 @@
       </c>
       <c r="C15" s="3" t="n">
         <f aca="false">B15/B31</f>
-        <v>0.00484391819160388</v>
+        <v>0.00215002388915432</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -642,7 +642,7 @@
       </c>
       <c r="C16" s="3" t="n">
         <f aca="false">B16/B31</f>
-        <v>0.00107642626480086</v>
+        <v>0.000477783086478739</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -654,7 +654,7 @@
       </c>
       <c r="C17" s="3" t="n">
         <f aca="false">B17/B31</f>
-        <v>0.00376749192680301</v>
+        <v>0.00167224080267559</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -666,7 +666,7 @@
       </c>
       <c r="C18" s="3" t="n">
         <f aca="false">B18/B31</f>
-        <v>0.00914962325080732</v>
+        <v>0.00406115623506928</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -678,7 +678,7 @@
       </c>
       <c r="C19" s="3" t="n">
         <f aca="false">B19/B31</f>
-        <v>0.0123789020452099</v>
+        <v>0.00549450549450549</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -690,7 +690,7 @@
       </c>
       <c r="C20" s="3" t="n">
         <f aca="false">B20/B31</f>
-        <v>0.00269106566200215</v>
+        <v>0.00119445771619685</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -698,7 +698,7 @@
         <v>10</v>
       </c>
       <c r="B31" s="5" t="n">
-        <v>1858</v>
+        <v>4186</v>
       </c>
     </row>
   </sheetData>
@@ -720,7 +720,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -750,7 +750,7 @@
       </c>
       <c r="C2" s="3" t="n">
         <f aca="false">B2/B22</f>
-        <v>0.00484391819160388</v>
+        <v>0.00215002388915432</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -762,7 +762,7 @@
       </c>
       <c r="C3" s="3" t="n">
         <f aca="false">B3/B22</f>
-        <v>0.00753498385360603</v>
+        <v>0.00334448160535117</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -774,7 +774,7 @@
       </c>
       <c r="C4" s="6" t="n">
         <f aca="false">B4/B22</f>
-        <v>0.000538213132400431</v>
+        <v>0.000238891543239369</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -786,7 +786,7 @@
       </c>
       <c r="C5" s="3" t="n">
         <f aca="false">B5/B22</f>
-        <v>0.00269106566200215</v>
+        <v>0.00119445771619685</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -798,7 +798,7 @@
       </c>
       <c r="C6" s="3" t="n">
         <f aca="false">B6/B22</f>
-        <v>0.00484391819160388</v>
+        <v>0.00215002388915432</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -810,7 +810,7 @@
       </c>
       <c r="C7" s="3" t="n">
         <f aca="false">B7/B22</f>
-        <v>0.0069967707212056</v>
+        <v>0.0031055900621118</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -822,7 +822,7 @@
       </c>
       <c r="C8" s="3" t="n">
         <f aca="false">B8/B22</f>
-        <v>0.00645855758880517</v>
+        <v>0.00286669851887243</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -834,7 +834,7 @@
       </c>
       <c r="C9" s="3" t="n">
         <f aca="false">B9/B22</f>
-        <v>0.0215285252960172</v>
+        <v>0.00955566172957477</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -846,7 +846,7 @@
       </c>
       <c r="C10" s="3" t="n">
         <f aca="false">B10/B22</f>
-        <v>0.0193756727664155</v>
+        <v>0.0086000955566173</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -858,7 +858,7 @@
       </c>
       <c r="C11" s="6" t="n">
         <f aca="false">B11/B22</f>
-        <v>0.0145317545748116</v>
+        <v>0.00645007166746297</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -870,7 +870,7 @@
       </c>
       <c r="C12" s="3" t="n">
         <f aca="false">B12/B22</f>
-        <v>0.00269106566200215</v>
+        <v>0.00119445771619685</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -902,7 +902,7 @@
         <v>10</v>
       </c>
       <c r="B22" s="5" t="n">
-        <v>1858</v>
+        <v>4186</v>
       </c>
     </row>
   </sheetData>
@@ -924,7 +924,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -954,7 +954,7 @@
       </c>
       <c r="C2" s="3" t="n">
         <f aca="false">B2/B11</f>
-        <v>0.00645855758880517</v>
+        <v>0.00286669851887243</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -986,7 +986,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="n">
-        <v>1858</v>
+        <v>4186</v>
       </c>
     </row>
   </sheetData>
